--- a/Planilhas/iel.xlsx
+++ b/Planilhas/iel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>CNPJ</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>NOTA FISCAL</t>
+  </si>
+  <si>
+    <t>E-MAILS</t>
+  </si>
+  <si>
+    <t>psbandeira@sfiec.org.br</t>
   </si>
 </sst>
 </file>
@@ -139,7 +145,7 @@
     <numFmt numFmtId="166" formatCode="[$R$ -416]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,20 +158,37 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,10 +262,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -345,8 +369,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -627,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,7 +712,9 @@
       <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="36" t="s">
+        <v>33</v>
+      </c>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -730,7 +763,9 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
@@ -779,7 +814,9 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
+      <c r="Q3" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
@@ -828,7 +865,9 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
       <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
@@ -877,7 +916,9 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
+      <c r="Q5" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
@@ -926,7 +967,9 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
@@ -977,7 +1020,9 @@
         <v>23</v>
       </c>
       <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="Q7" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
@@ -1026,7 +1071,9 @@
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="R8" s="30"/>
       <c r="S8" s="30"/>
       <c r="T8" s="30"/>
@@ -1075,7 +1122,9 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="Q9" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -1097,7 +1146,11 @@
       <formula1>"Liberado,Aguardando,Pendente"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1"/>
+    <hyperlink ref="Q3:Q9" r:id="rId2" display="psbandeira@sfiec.org.br"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>